--- a/data/pca/factorExposure/factorExposure_2009-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007728293985441963</v>
+        <v>-0.01650342316775029</v>
       </c>
       <c r="C2">
-        <v>-0.001617314277221585</v>
+        <v>-0.0008584977701568315</v>
       </c>
       <c r="D2">
-        <v>0.009081447894723597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008831234525695997</v>
+      </c>
+      <c r="E2">
+        <v>-0.001350683378111126</v>
+      </c>
+      <c r="F2">
+        <v>0.01221533647386787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1077534709452414</v>
+        <v>-0.09354875422065936</v>
       </c>
       <c r="C4">
-        <v>-0.0009983380876604519</v>
+        <v>-0.01462119424636063</v>
       </c>
       <c r="D4">
-        <v>0.04907354462341779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08520552161029481</v>
+      </c>
+      <c r="E4">
+        <v>-0.02863376798920036</v>
+      </c>
+      <c r="F4">
+        <v>-0.03220257526836624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1411996536005101</v>
+        <v>-0.1590001569103777</v>
       </c>
       <c r="C6">
-        <v>-0.004523613884083943</v>
+        <v>-0.02583293542194844</v>
       </c>
       <c r="D6">
-        <v>-0.03854094050350453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0224322986951207</v>
+      </c>
+      <c r="E6">
+        <v>-0.01145495758849475</v>
+      </c>
+      <c r="F6">
+        <v>-0.04551711190127843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07714000784488535</v>
+        <v>-0.06288476735229102</v>
       </c>
       <c r="C7">
-        <v>0.01166043909121531</v>
+        <v>0.001803910154378083</v>
       </c>
       <c r="D7">
-        <v>0.02726996443836832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05286640582301341</v>
+      </c>
+      <c r="E7">
+        <v>-0.009020354494006112</v>
+      </c>
+      <c r="F7">
+        <v>-0.0474247364573144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06571218615366678</v>
+        <v>-0.05681157918120311</v>
       </c>
       <c r="C8">
-        <v>0.02087652121402816</v>
+        <v>0.01371222543743518</v>
       </c>
       <c r="D8">
-        <v>-0.005232034425750292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03342334235339186</v>
+      </c>
+      <c r="E8">
+        <v>-0.01719682276942729</v>
+      </c>
+      <c r="F8">
+        <v>0.02655785548711248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09096614134548893</v>
+        <v>-0.07073106844927353</v>
       </c>
       <c r="C9">
-        <v>-0.001292487374551711</v>
+        <v>-0.01028304229726859</v>
       </c>
       <c r="D9">
-        <v>0.04496295665022852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08705791242782755</v>
+      </c>
+      <c r="E9">
+        <v>-0.02265628089235493</v>
+      </c>
+      <c r="F9">
+        <v>-0.04757125116375535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0489759287320316</v>
+        <v>-0.09358540516780212</v>
       </c>
       <c r="C10">
-        <v>-0.001844011160924903</v>
+        <v>-0.02093211120792643</v>
       </c>
       <c r="D10">
-        <v>-0.1307744551572293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1669882537049464</v>
+      </c>
+      <c r="E10">
+        <v>0.03572750313852732</v>
+      </c>
+      <c r="F10">
+        <v>0.05414964910301653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1009257078992131</v>
+        <v>-0.08772874243043874</v>
       </c>
       <c r="C11">
-        <v>-0.0005353127301413066</v>
+        <v>-0.01030264497120917</v>
       </c>
       <c r="D11">
-        <v>0.07524923934163935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168885952618212</v>
+      </c>
+      <c r="E11">
+        <v>-0.04587022774374657</v>
+      </c>
+      <c r="F11">
+        <v>-0.02196300750614689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1067590077137551</v>
+        <v>-0.09162564588791364</v>
       </c>
       <c r="C12">
-        <v>0.002073926575203432</v>
+        <v>-0.007374480782417019</v>
       </c>
       <c r="D12">
-        <v>0.0783606299906381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1326218069008792</v>
+      </c>
+      <c r="E12">
+        <v>-0.04786712958496138</v>
+      </c>
+      <c r="F12">
+        <v>-0.02795741821424235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04426169571288623</v>
+        <v>-0.04173313007173607</v>
       </c>
       <c r="C13">
-        <v>0.000913843698104901</v>
+        <v>-0.002688976630177215</v>
       </c>
       <c r="D13">
-        <v>0.02795124871876256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05365939851167299</v>
+      </c>
+      <c r="E13">
+        <v>0.008238527937847028</v>
+      </c>
+      <c r="F13">
+        <v>-0.00222687374382081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02331311836292555</v>
+        <v>-0.02394611748709937</v>
       </c>
       <c r="C14">
-        <v>-0.01104494760174479</v>
+        <v>-0.0139561269288633</v>
       </c>
       <c r="D14">
-        <v>0.0198662786673256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03261716974604667</v>
+      </c>
+      <c r="E14">
+        <v>-0.01700602667250876</v>
+      </c>
+      <c r="F14">
+        <v>-0.01270713719160299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04236631109460969</v>
+        <v>-0.03289707400008714</v>
       </c>
       <c r="C15">
-        <v>-0.0008211433732273022</v>
+        <v>-0.004620803367161083</v>
       </c>
       <c r="D15">
-        <v>0.01106990651625601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04520996491527404</v>
+      </c>
+      <c r="E15">
+        <v>-0.005588885384898014</v>
+      </c>
+      <c r="F15">
+        <v>-0.0230349473659864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08784802902849634</v>
+        <v>-0.07375489963358553</v>
       </c>
       <c r="C16">
-        <v>0.006788334952168001</v>
+        <v>-0.0009374906236102995</v>
       </c>
       <c r="D16">
-        <v>0.07174639140388452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1274919344003653</v>
+      </c>
+      <c r="E16">
+        <v>-0.0617909068282479</v>
+      </c>
+      <c r="F16">
+        <v>-0.02589123601432578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0003090058087371454</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.750060627101732e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006804026216319377</v>
+      </c>
+      <c r="E17">
+        <v>0.000312965013765945</v>
+      </c>
+      <c r="F17">
+        <v>0.0004015052942580918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.03452120839484472</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003215595459550292</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01640667533514157</v>
+      </c>
+      <c r="E18">
+        <v>0.007334745280723945</v>
+      </c>
+      <c r="F18">
+        <v>0.007815010665682498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06376222446156599</v>
+        <v>-0.06108441238034994</v>
       </c>
       <c r="C20">
-        <v>0.003660140112013088</v>
+        <v>0.0002126226259696502</v>
       </c>
       <c r="D20">
-        <v>0.0221546885406005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07770183983434208</v>
+      </c>
+      <c r="E20">
+        <v>-0.05557013692608354</v>
+      </c>
+      <c r="F20">
+        <v>-0.02452875465999033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0404795868882756</v>
+        <v>-0.04095164579381768</v>
       </c>
       <c r="C21">
-        <v>-0.004337030460771906</v>
+        <v>-0.006564053128943019</v>
       </c>
       <c r="D21">
-        <v>0.009741623543079544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03746420643652549</v>
+      </c>
+      <c r="E21">
+        <v>0.005265607122548421</v>
+      </c>
+      <c r="F21">
+        <v>0.02491005050559527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02305912797644608</v>
+        <v>-0.04309020775122507</v>
       </c>
       <c r="C22">
-        <v>0.001425175449472452</v>
+        <v>-0.0007688324903710989</v>
       </c>
       <c r="D22">
-        <v>-0.02111244947200831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006523473357972751</v>
+      </c>
+      <c r="E22">
+        <v>-0.03283273783516587</v>
+      </c>
+      <c r="F22">
+        <v>0.04038346500528259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02299855561264228</v>
+        <v>-0.04306623093252571</v>
       </c>
       <c r="C23">
-        <v>0.001423036011000783</v>
+        <v>-0.0007606672889016021</v>
       </c>
       <c r="D23">
-        <v>-0.02111715800224185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006539304090231226</v>
+      </c>
+      <c r="E23">
+        <v>-0.03301703557573223</v>
+      </c>
+      <c r="F23">
+        <v>0.04034650047596434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09653119637487274</v>
+        <v>-0.07987744421774437</v>
       </c>
       <c r="C24">
-        <v>0.007789700922722414</v>
+        <v>-0.001505124384157078</v>
       </c>
       <c r="D24">
-        <v>0.08012559419634288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1219595905499458</v>
+      </c>
+      <c r="E24">
+        <v>-0.04904878466924897</v>
+      </c>
+      <c r="F24">
+        <v>-0.02702460541937312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09825726593898149</v>
+        <v>-0.08462337973869724</v>
       </c>
       <c r="C25">
-        <v>0.004990840728236314</v>
+        <v>-0.004088791576100054</v>
       </c>
       <c r="D25">
-        <v>0.0807970491325814</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1097787103420356</v>
+      </c>
+      <c r="E25">
+        <v>-0.03195711283923842</v>
+      </c>
+      <c r="F25">
+        <v>-0.02723797224220348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05269791225698001</v>
+        <v>-0.05752855285048158</v>
       </c>
       <c r="C26">
-        <v>-0.01042607801198202</v>
+        <v>-0.01390084539007348</v>
       </c>
       <c r="D26">
-        <v>0.001919149223611831</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04118342213155579</v>
+      </c>
+      <c r="E26">
+        <v>-0.02734825922860112</v>
+      </c>
+      <c r="F26">
+        <v>0.006266651810085666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09699423655418513</v>
+        <v>-0.1412378391162359</v>
       </c>
       <c r="C28">
-        <v>0.009545841112512837</v>
+        <v>-0.02122504604174329</v>
       </c>
       <c r="D28">
-        <v>-0.2494619115022715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2611267173371192</v>
+      </c>
+      <c r="E28">
+        <v>0.06829701324762917</v>
+      </c>
+      <c r="F28">
+        <v>-0.01014074172832019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02602960500196267</v>
+        <v>-0.02882958739493106</v>
       </c>
       <c r="C29">
-        <v>-0.006276857428454518</v>
+        <v>-0.008821360866606313</v>
       </c>
       <c r="D29">
-        <v>0.01037001240391173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03091074117929946</v>
+      </c>
+      <c r="E29">
+        <v>-0.01144419885550478</v>
+      </c>
+      <c r="F29">
+        <v>0.0133918014833766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1040476594625681</v>
+        <v>-0.05956842462429414</v>
       </c>
       <c r="C30">
-        <v>0.01058519188618285</v>
+        <v>-0.002777294698300197</v>
       </c>
       <c r="D30">
-        <v>0.04230238784776123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08920411116080328</v>
+      </c>
+      <c r="E30">
+        <v>-0.01928414296085861</v>
+      </c>
+      <c r="F30">
+        <v>-0.0798760318051011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03537335031299226</v>
+        <v>-0.05024793108657796</v>
       </c>
       <c r="C31">
-        <v>-0.0116256770146181</v>
+        <v>-0.01513095893999772</v>
       </c>
       <c r="D31">
-        <v>0.01472283075259934</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02486814880704008</v>
+      </c>
+      <c r="E31">
+        <v>-0.02750211398960415</v>
+      </c>
+      <c r="F31">
+        <v>0.002165086196915165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0489822548922676</v>
+        <v>-0.05054232646115861</v>
       </c>
       <c r="C32">
-        <v>0.006982829612793816</v>
+        <v>0.001839182072720628</v>
       </c>
       <c r="D32">
-        <v>0.009454465134304207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03502429206099239</v>
+      </c>
+      <c r="E32">
+        <v>-0.03195541156281499</v>
+      </c>
+      <c r="F32">
+        <v>-0.003674880353824822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1042571422592304</v>
+        <v>-0.08948835162991546</v>
       </c>
       <c r="C33">
-        <v>0.00418377631163944</v>
+        <v>-0.007040472236926554</v>
       </c>
       <c r="D33">
-        <v>0.05029063448125119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1001141238402629</v>
+      </c>
+      <c r="E33">
+        <v>-0.04369713513596012</v>
+      </c>
+      <c r="F33">
+        <v>-0.03597458592636741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08956785507466322</v>
+        <v>-0.06729308750642593</v>
       </c>
       <c r="C34">
-        <v>-0.0003123306757495907</v>
+        <v>-0.009937833890870846</v>
       </c>
       <c r="D34">
-        <v>0.0717533076084173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090212105796051</v>
+      </c>
+      <c r="E34">
+        <v>-0.03465234104371944</v>
+      </c>
+      <c r="F34">
+        <v>-0.03336403812229023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02172027138897947</v>
+        <v>-0.0247050229526285</v>
       </c>
       <c r="C35">
-        <v>0.00127398357303423</v>
+        <v>-0.002414550333413669</v>
       </c>
       <c r="D35">
-        <v>0.003606910180301664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01142342237931272</v>
+      </c>
+      <c r="E35">
+        <v>-0.01163674953738883</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004624794902668057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01388987412989538</v>
+        <v>-0.02734820933223507</v>
       </c>
       <c r="C36">
-        <v>-0.008176997597609694</v>
+        <v>-0.006720596634725161</v>
       </c>
       <c r="D36">
-        <v>0.02764794624515141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03970653793127886</v>
+      </c>
+      <c r="E36">
+        <v>-0.01605488020946353</v>
+      </c>
+      <c r="F36">
+        <v>-0.01574472012104814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001131179861410496</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0004861789625323029</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002345672966427851</v>
+      </c>
+      <c r="E37">
+        <v>0.001710745932129837</v>
+      </c>
+      <c r="F37">
+        <v>-0.0004447563212548737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0017593351267951</v>
+        <v>-0.000973734449111452</v>
       </c>
       <c r="C38">
-        <v>0.0002016519031660218</v>
+        <v>-0.0001447929968558206</v>
       </c>
       <c r="D38">
-        <v>-0.001467272744439775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004154747914572951</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001326803393219322</v>
+      </c>
+      <c r="F38">
+        <v>0.001078366928914809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1354226832506419</v>
+        <v>-0.1047601359670022</v>
       </c>
       <c r="C39">
-        <v>-0.0001067710890744481</v>
+        <v>-0.01541507167622679</v>
       </c>
       <c r="D39">
-        <v>0.1160080778286412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1548953041581602</v>
+      </c>
+      <c r="E39">
+        <v>-0.05908244486298665</v>
+      </c>
+      <c r="F39">
+        <v>-0.02973524271767384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02702358348076773</v>
+        <v>-0.04238834412686918</v>
       </c>
       <c r="C40">
-        <v>-0.005415605945798078</v>
+        <v>-0.006732523191535632</v>
       </c>
       <c r="D40">
-        <v>-0.01221093532062909</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03181827713351041</v>
+      </c>
+      <c r="E40">
+        <v>-0.002570680107238044</v>
+      </c>
+      <c r="F40">
+        <v>0.01602935734994075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01933983222279658</v>
+        <v>-0.0275003235025797</v>
       </c>
       <c r="C41">
-        <v>-0.00483441507289809</v>
+        <v>-0.00667688202938174</v>
       </c>
       <c r="D41">
-        <v>-0.002526706174141668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01059130026643934</v>
+      </c>
+      <c r="E41">
+        <v>-0.01229576912958879</v>
+      </c>
+      <c r="F41">
+        <v>0.007135449451207492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01856554490813335</v>
+        <v>-0.04047139152635849</v>
       </c>
       <c r="C43">
-        <v>-0.00682891367295231</v>
+        <v>-0.006859749348434663</v>
       </c>
       <c r="D43">
-        <v>0.008223619945706971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01934448764093319</v>
+      </c>
+      <c r="E43">
+        <v>-0.02464297367290395</v>
+      </c>
+      <c r="F43">
+        <v>0.01384216225194232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1073617304381924</v>
+        <v>-0.079903878156191</v>
       </c>
       <c r="C44">
-        <v>-0.007934992070448687</v>
+        <v>-0.01940128527059565</v>
       </c>
       <c r="D44">
-        <v>0.04243273732277308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09796764480917433</v>
+      </c>
+      <c r="E44">
+        <v>-0.06237266637878863</v>
+      </c>
+      <c r="F44">
+        <v>-0.1563072848389974</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004853484673705075</v>
+        <v>-0.02372656514871915</v>
       </c>
       <c r="C46">
-        <v>-0.004409519852627372</v>
+        <v>-0.003670563217388991</v>
       </c>
       <c r="D46">
-        <v>-0.001524219365822451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01306698250103006</v>
+      </c>
+      <c r="E46">
+        <v>-0.02232898797335857</v>
+      </c>
+      <c r="F46">
+        <v>0.007470730611463332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04294894273129585</v>
+        <v>-0.05205418257183449</v>
       </c>
       <c r="C47">
-        <v>0.001034533791160517</v>
+        <v>-0.003232888558350738</v>
       </c>
       <c r="D47">
-        <v>-0.02609850293830272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01408631283326121</v>
+      </c>
+      <c r="E47">
+        <v>-0.02360173371136619</v>
+      </c>
+      <c r="F47">
+        <v>0.03296552481625078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05313359157025086</v>
+        <v>-0.04971373417653534</v>
       </c>
       <c r="C48">
-        <v>0.003420288083771915</v>
+        <v>-0.002006816919673769</v>
       </c>
       <c r="D48">
-        <v>0.02664705481717219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05021034082851539</v>
+      </c>
+      <c r="E48">
+        <v>0.006047250991155952</v>
+      </c>
+      <c r="F48">
+        <v>-0.009880313549122577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2242673774337995</v>
+        <v>-0.2014544571129807</v>
       </c>
       <c r="C49">
-        <v>0.01868930407900974</v>
+        <v>-0.01884819234919233</v>
       </c>
       <c r="D49">
-        <v>-0.03891942932197602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006639562614721785</v>
+      </c>
+      <c r="E49">
+        <v>-0.0323467158375428</v>
+      </c>
+      <c r="F49">
+        <v>-0.0359587079229458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03977828731513709</v>
+        <v>-0.05040184015217832</v>
       </c>
       <c r="C50">
-        <v>-0.006938671932018524</v>
+        <v>-0.01089864133625585</v>
       </c>
       <c r="D50">
-        <v>0.008122704468543341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02409152543478938</v>
+      </c>
+      <c r="E50">
+        <v>-0.02949796868487872</v>
+      </c>
+      <c r="F50">
+        <v>-0.009347309648378731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000754773662379161</v>
+        <v>-0.0003914033145270354</v>
       </c>
       <c r="C51">
-        <v>3.279573475068363e-05</v>
+        <v>-0.000116022584503407</v>
       </c>
       <c r="D51">
-        <v>-0.00098083349972408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0002235747217078149</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001956409084667196</v>
+      </c>
+      <c r="F51">
+        <v>-0.0005539028812047201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1594630351121674</v>
+        <v>-0.146251213083424</v>
       </c>
       <c r="C52">
-        <v>0.01031553318258579</v>
+        <v>-0.01604547896978276</v>
       </c>
       <c r="D52">
-        <v>0.02949533255561823</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04370592851248954</v>
+      </c>
+      <c r="E52">
+        <v>-0.01966294112731198</v>
+      </c>
+      <c r="F52">
+        <v>-0.04231404346338817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1754357779453255</v>
+        <v>-0.1711779204582808</v>
       </c>
       <c r="C53">
-        <v>0.01232079261250633</v>
+        <v>-0.01903415846776803</v>
       </c>
       <c r="D53">
-        <v>-0.007215842887855111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005776026615432282</v>
+      </c>
+      <c r="E53">
+        <v>-0.0308413174420807</v>
+      </c>
+      <c r="F53">
+        <v>-0.07196508670706768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02674495706184988</v>
+        <v>-0.02151277323839718</v>
       </c>
       <c r="C54">
-        <v>-0.007938926071728771</v>
+        <v>-0.01185083237600449</v>
       </c>
       <c r="D54">
-        <v>0.01125088372095891</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03419484342669571</v>
+      </c>
+      <c r="E54">
+        <v>-0.01741178544133926</v>
+      </c>
+      <c r="F54">
+        <v>0.004223254339225793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.105935603220684</v>
+        <v>-0.1138118022785407</v>
       </c>
       <c r="C55">
-        <v>0.002262667409755198</v>
+        <v>-0.01663718968783011</v>
       </c>
       <c r="D55">
-        <v>-0.008335608849673711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008643852893441694</v>
+      </c>
+      <c r="E55">
+        <v>-0.02684403829649888</v>
+      </c>
+      <c r="F55">
+        <v>-0.04714042190832123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1742785111382422</v>
+        <v>-0.1764251876595805</v>
       </c>
       <c r="C56">
-        <v>0.01452566632551908</v>
+        <v>-0.01678410032199946</v>
       </c>
       <c r="D56">
-        <v>-0.02111279688039226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.000627126668692179</v>
+      </c>
+      <c r="E56">
+        <v>-0.03517191673444298</v>
+      </c>
+      <c r="F56">
+        <v>-0.05013228663437432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03678141209114708</v>
+        <v>-0.04486460712539882</v>
       </c>
       <c r="C58">
-        <v>-0.001639732982593426</v>
+        <v>0.0005483846908785333</v>
       </c>
       <c r="D58">
-        <v>0.039453509707793</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07114172511881973</v>
+      </c>
+      <c r="E58">
+        <v>-0.02808066242412557</v>
+      </c>
+      <c r="F58">
+        <v>0.03791807581214871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.123079565168724</v>
+        <v>-0.168413539248941</v>
       </c>
       <c r="C59">
-        <v>0.01160760659544666</v>
+        <v>-0.02154254152736885</v>
       </c>
       <c r="D59">
-        <v>-0.2208860596400807</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2172796293703376</v>
+      </c>
+      <c r="E59">
+        <v>0.04634628803858476</v>
+      </c>
+      <c r="F59">
+        <v>0.03539747079656742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2622344586504441</v>
+        <v>-0.2321669886233746</v>
       </c>
       <c r="C60">
-        <v>0.04600649942111385</v>
+        <v>0.002907337591006289</v>
       </c>
       <c r="D60">
-        <v>0.02206738012181649</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04223000708434702</v>
+      </c>
+      <c r="E60">
+        <v>-0.01236362748636484</v>
+      </c>
+      <c r="F60">
+        <v>0.006509995938144715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1112876433913408</v>
+        <v>-0.08101519650342794</v>
       </c>
       <c r="C61">
-        <v>0.002323122604637433</v>
+        <v>-0.01125385685534587</v>
       </c>
       <c r="D61">
-        <v>0.07436842168829917</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1178333250086599</v>
+      </c>
+      <c r="E61">
+        <v>-0.03892346119053424</v>
+      </c>
+      <c r="F61">
+        <v>-0.01237949073002066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1706602911564159</v>
+        <v>-0.1694886773022806</v>
       </c>
       <c r="C62">
-        <v>0.01066424929618207</v>
+        <v>-0.02006294898163527</v>
       </c>
       <c r="D62">
-        <v>-0.0158757967159655</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006050747408385802</v>
+      </c>
+      <c r="E62">
+        <v>-0.03378274068576659</v>
+      </c>
+      <c r="F62">
+        <v>-0.03360687287908409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04674005738495859</v>
+        <v>-0.04578418647301998</v>
       </c>
       <c r="C63">
-        <v>0.001967531099985858</v>
+        <v>-0.001629943333391434</v>
       </c>
       <c r="D63">
-        <v>0.03515072707797793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05892206752453451</v>
+      </c>
+      <c r="E63">
+        <v>-0.02226970383028317</v>
+      </c>
+      <c r="F63">
+        <v>-0.004577894734002772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.098074948261416</v>
+        <v>-0.1096213005283818</v>
       </c>
       <c r="C64">
-        <v>-0.0001004038897097736</v>
+        <v>-0.01083518623353634</v>
       </c>
       <c r="D64">
-        <v>0.004911759117514383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04444212637805346</v>
+      </c>
+      <c r="E64">
+        <v>-0.02404605026030597</v>
+      </c>
+      <c r="F64">
+        <v>-0.02424991619865913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1286412457078093</v>
+        <v>-0.1495463994978465</v>
       </c>
       <c r="C65">
-        <v>-0.01117943486891937</v>
+        <v>-0.03314056402459299</v>
       </c>
       <c r="D65">
-        <v>-0.02961548675778426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04236965602714458</v>
+      </c>
+      <c r="E65">
+        <v>-0.005620410093659923</v>
+      </c>
+      <c r="F65">
+        <v>-0.03940016186823726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1647186159145867</v>
+        <v>-0.1240004489011256</v>
       </c>
       <c r="C66">
-        <v>0.006161632201748458</v>
+        <v>-0.01342205211711246</v>
       </c>
       <c r="D66">
-        <v>0.1031841568171449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1430859911471515</v>
+      </c>
+      <c r="E66">
+        <v>-0.06557555108281335</v>
+      </c>
+      <c r="F66">
+        <v>-0.03288567036537952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06524424270649792</v>
+        <v>-0.05956155848781016</v>
       </c>
       <c r="C67">
-        <v>0.005196792162064508</v>
+        <v>-0.003036655117099061</v>
       </c>
       <c r="D67">
-        <v>0.02051904285140038</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05564943746819243</v>
+      </c>
+      <c r="E67">
+        <v>-0.01736026530423843</v>
+      </c>
+      <c r="F67">
+        <v>0.03286337121126176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08090939509847825</v>
+        <v>-0.1167385492853079</v>
       </c>
       <c r="C68">
-        <v>-0.003644794233675907</v>
+        <v>-0.03213018285439264</v>
       </c>
       <c r="D68">
-        <v>-0.2295598316302709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2599018682760661</v>
+      </c>
+      <c r="E68">
+        <v>0.08704210565331706</v>
+      </c>
+      <c r="F68">
+        <v>-0.005561609621061205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03589467175351307</v>
+        <v>-0.03972967668164732</v>
       </c>
       <c r="C69">
-        <v>0.003796746541075171</v>
+        <v>-0.001176326758977077</v>
       </c>
       <c r="D69">
-        <v>-0.009056450614567679</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007846206225367176</v>
+      </c>
+      <c r="E69">
+        <v>-0.0220251093577612</v>
+      </c>
+      <c r="F69">
+        <v>-0.001497750047928786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0307161444854907</v>
+        <v>-0.06630472453865108</v>
       </c>
       <c r="C70">
-        <v>0.02687235301084027</v>
+        <v>0.02774345839092231</v>
       </c>
       <c r="D70">
-        <v>-0.0295053569920739</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02368213811291291</v>
+      </c>
+      <c r="E70">
+        <v>0.0363920145090247</v>
+      </c>
+      <c r="F70">
+        <v>0.1857162793875162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09590407585675698</v>
+        <v>-0.1362389736934461</v>
       </c>
       <c r="C71">
-        <v>-0.005041135830988152</v>
+        <v>-0.03634028281666969</v>
       </c>
       <c r="D71">
-        <v>-0.2449738180633858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.271933688341188</v>
+      </c>
+      <c r="E71">
+        <v>0.09759607279871176</v>
+      </c>
+      <c r="F71">
+        <v>-0.01083089949413809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1358206554855422</v>
+        <v>-0.1424356740946279</v>
       </c>
       <c r="C72">
-        <v>-0.003388106239504554</v>
+        <v>-0.02620746331177816</v>
       </c>
       <c r="D72">
-        <v>-0.0290931086346407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001467265121449582</v>
+      </c>
+      <c r="E72">
+        <v>-0.03887105263473226</v>
+      </c>
+      <c r="F72">
+        <v>-0.0331033321381479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2084348247995363</v>
+        <v>-0.2029343547322863</v>
       </c>
       <c r="C73">
-        <v>0.02194559513006223</v>
+        <v>-0.01228150706402968</v>
       </c>
       <c r="D73">
-        <v>-0.03160977129136269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01702665782203563</v>
+      </c>
+      <c r="E73">
+        <v>-0.06431810437604372</v>
+      </c>
+      <c r="F73">
+        <v>-0.03429162826112285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1036359574241393</v>
+        <v>-0.09446618359617953</v>
       </c>
       <c r="C74">
-        <v>0.00544251905326542</v>
+        <v>-0.01317338706822311</v>
       </c>
       <c r="D74">
-        <v>-0.001510563592072028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01708806011116373</v>
+      </c>
+      <c r="E74">
+        <v>-0.04382301765163057</v>
+      </c>
+      <c r="F74">
+        <v>-0.05770804202533847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1382117630947886</v>
+        <v>-0.1273868813267619</v>
       </c>
       <c r="C75">
-        <v>-0.004984192256636398</v>
+        <v>-0.02786695434786142</v>
       </c>
       <c r="D75">
-        <v>-0.003874868612449991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03040864856609227</v>
+      </c>
+      <c r="E75">
+        <v>-0.05739449579424015</v>
+      </c>
+      <c r="F75">
+        <v>-0.0210355885279855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08764286741481749</v>
+        <v>-0.08739741164521694</v>
       </c>
       <c r="C77">
-        <v>-0.00144986557713149</v>
+        <v>-0.007954058760040359</v>
       </c>
       <c r="D77">
-        <v>0.07331192626154037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1124922969116965</v>
+      </c>
+      <c r="E77">
+        <v>-0.04008791591027504</v>
+      </c>
+      <c r="F77">
+        <v>-0.0325450083294222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1412593483931687</v>
+        <v>-0.1007914903351296</v>
       </c>
       <c r="C78">
-        <v>-0.02377862628744612</v>
+        <v>-0.03934204086459343</v>
       </c>
       <c r="D78">
-        <v>0.0271109333368713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1157562100223941</v>
+      </c>
+      <c r="E78">
+        <v>-0.07376230819072856</v>
+      </c>
+      <c r="F78">
+        <v>-0.04890134780682081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1569992920396476</v>
+        <v>-0.163736712732125</v>
       </c>
       <c r="C79">
-        <v>0.003085759772854114</v>
+        <v>-0.02238891995921698</v>
       </c>
       <c r="D79">
-        <v>-0.02037252148938255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01438809823802361</v>
+      </c>
+      <c r="E79">
+        <v>-0.04499378345611166</v>
+      </c>
+      <c r="F79">
+        <v>-0.01061302403025923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08963019572801026</v>
+        <v>-0.08256986056016802</v>
       </c>
       <c r="C80">
-        <v>0.01269119574359232</v>
+        <v>0.001240463782768323</v>
       </c>
       <c r="D80">
-        <v>0.02741693584003864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05687187275668749</v>
+      </c>
+      <c r="E80">
+        <v>-0.03629438910710094</v>
+      </c>
+      <c r="F80">
+        <v>0.02262996211968882</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1258362163729012</v>
+        <v>-0.1201526324470613</v>
       </c>
       <c r="C81">
-        <v>-0.01073877105479057</v>
+        <v>-0.03173687955268687</v>
       </c>
       <c r="D81">
-        <v>0.008664414276974536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01512167011954588</v>
+      </c>
+      <c r="E81">
+        <v>-0.05583142991237848</v>
+      </c>
+      <c r="F81">
+        <v>-0.0180376136216579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.169911943553304</v>
+        <v>-0.1652965682672669</v>
       </c>
       <c r="C82">
-        <v>0.006100787143513719</v>
+        <v>-0.02424573841597565</v>
       </c>
       <c r="D82">
-        <v>0.000534914157681593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004010249618360764</v>
+      </c>
+      <c r="E82">
+        <v>-0.02781634072224508</v>
+      </c>
+      <c r="F82">
+        <v>-0.08169233682791509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06638919281883388</v>
+        <v>-0.05927364733789028</v>
       </c>
       <c r="C83">
-        <v>0.004283590592907249</v>
+        <v>-0.00257690102257675</v>
       </c>
       <c r="D83">
-        <v>0.0331939227231432</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05141019314708794</v>
+      </c>
+      <c r="E83">
+        <v>-0.004729103291295074</v>
+      </c>
+      <c r="F83">
+        <v>0.03016229397574567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07566640137866086</v>
+        <v>-0.05852717825374621</v>
       </c>
       <c r="C84">
-        <v>-0.002897963112862638</v>
+        <v>-0.01101992697247249</v>
       </c>
       <c r="D84">
-        <v>0.0369505807362373</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0637890428564592</v>
+      </c>
+      <c r="E84">
+        <v>-0.005937934602186953</v>
+      </c>
+      <c r="F84">
+        <v>-0.004807481933692341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1374331986402418</v>
+        <v>-0.1360847827616103</v>
       </c>
       <c r="C85">
-        <v>-0.004817605707001895</v>
+        <v>-0.02774181506079273</v>
       </c>
       <c r="D85">
-        <v>-0.009196967181927692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009961710609725326</v>
+      </c>
+      <c r="E85">
+        <v>-0.03652700433291631</v>
+      </c>
+      <c r="F85">
+        <v>-0.0464708267796959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07677305922870742</v>
+        <v>-0.0956693406830789</v>
       </c>
       <c r="C86">
-        <v>0.009926120222745385</v>
+        <v>0.005270410871735078</v>
       </c>
       <c r="D86">
-        <v>-0.09431324949914507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04056483218444722</v>
+      </c>
+      <c r="E86">
+        <v>-0.2181529268336924</v>
+      </c>
+      <c r="F86">
+        <v>0.9078036390770584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1340662127004162</v>
+        <v>-0.09610929171301891</v>
       </c>
       <c r="C87">
-        <v>-0.005139947982488759</v>
+        <v>-0.01949692294488699</v>
       </c>
       <c r="D87">
-        <v>0.05521182070340193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09480385892785601</v>
+      </c>
+      <c r="E87">
+        <v>0.05299649490718874</v>
+      </c>
+      <c r="F87">
+        <v>-0.04950650709164401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05707838826922144</v>
+        <v>-0.06049968338897103</v>
       </c>
       <c r="C88">
-        <v>0.002569364377614201</v>
+        <v>-0.002003651652238596</v>
       </c>
       <c r="D88">
-        <v>0.01337512482460334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04952901571439215</v>
+      </c>
+      <c r="E88">
+        <v>-0.02386084053405436</v>
+      </c>
+      <c r="F88">
+        <v>-0.0132960676633162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.103973838273338</v>
+        <v>-0.1328392066936117</v>
       </c>
       <c r="C89">
-        <v>0.0192522359686742</v>
+        <v>-0.01319729474167957</v>
       </c>
       <c r="D89">
-        <v>-0.2591987437029385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2467483065034126</v>
+      </c>
+      <c r="E89">
+        <v>0.09005901211976165</v>
+      </c>
+      <c r="F89">
+        <v>0.008003163001626826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1026286677479907</v>
+        <v>-0.1514923187575495</v>
       </c>
       <c r="C90">
-        <v>-0.00200613884943311</v>
+        <v>-0.03293217931705391</v>
       </c>
       <c r="D90">
-        <v>-0.2448826918925685</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2701712501151402</v>
+      </c>
+      <c r="E90">
+        <v>0.1138115279249679</v>
+      </c>
+      <c r="F90">
+        <v>0.00512141734691032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.110950252154903</v>
+        <v>-0.120521603756572</v>
       </c>
       <c r="C91">
-        <v>0.002119175466871315</v>
+        <v>-0.01914313072270128</v>
       </c>
       <c r="D91">
-        <v>-0.03406344930344578</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01434843993403972</v>
+      </c>
+      <c r="E91">
+        <v>-0.05564771976339345</v>
+      </c>
+      <c r="F91">
+        <v>0.001426479810186499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1049690461509956</v>
+        <v>-0.1482484291992026</v>
       </c>
       <c r="C92">
-        <v>0.01396816175830226</v>
+        <v>-0.02412143293698787</v>
       </c>
       <c r="D92">
-        <v>-0.2580376605860082</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914005972582631</v>
+      </c>
+      <c r="E92">
+        <v>0.1026499490487818</v>
+      </c>
+      <c r="F92">
+        <v>0.01207638558333265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1078811611279929</v>
+        <v>-0.1522862853579791</v>
       </c>
       <c r="C93">
-        <v>0.004266040443427238</v>
+        <v>-0.0283841479125889</v>
       </c>
       <c r="D93">
-        <v>-0.2550682205162826</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2678322597491606</v>
+      </c>
+      <c r="E93">
+        <v>0.07878148202657201</v>
+      </c>
+      <c r="F93">
+        <v>-0.003814662845539042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1455200093019007</v>
+        <v>-0.1295409149763947</v>
       </c>
       <c r="C94">
-        <v>-0.0003393139854424102</v>
+        <v>-0.02449718805912795</v>
       </c>
       <c r="D94">
-        <v>0.01179476264395161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04300314984312109</v>
+      </c>
+      <c r="E94">
+        <v>-0.0569573017056693</v>
+      </c>
+      <c r="F94">
+        <v>-0.03766258315852855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.123109920648475</v>
+        <v>-0.1269796298058598</v>
       </c>
       <c r="C95">
-        <v>0.008906562097995204</v>
+        <v>-0.003279221249855245</v>
       </c>
       <c r="D95">
-        <v>0.04729149007927042</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09380649484028813</v>
+      </c>
+      <c r="E95">
+        <v>-0.04672793732576468</v>
+      </c>
+      <c r="F95">
+        <v>0.006166743318965962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05802188497300041</v>
+        <v>-0.1062890923914154</v>
       </c>
       <c r="C96">
-        <v>0.9930789389110602</v>
+        <v>0.9874071161001058</v>
       </c>
       <c r="D96">
-        <v>-0.02232991992228419</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04998433947151038</v>
+      </c>
+      <c r="E96">
+        <v>-0.0548518691826087</v>
+      </c>
+      <c r="F96">
+        <v>-0.04165752648405917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1716803004142072</v>
+        <v>-0.1928597966460905</v>
       </c>
       <c r="C97">
-        <v>0.03545403497012408</v>
+        <v>0.007520035561249102</v>
       </c>
       <c r="D97">
-        <v>-0.05585355193858627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01782095106539762</v>
+      </c>
+      <c r="E97">
+        <v>-0.02004535719051613</v>
+      </c>
+      <c r="F97">
+        <v>0.0789809024473988</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2012908652402199</v>
+        <v>-0.2055530092662173</v>
       </c>
       <c r="C98">
-        <v>0.0258749315257116</v>
+        <v>-0.006956768682848429</v>
       </c>
       <c r="D98">
-        <v>0.00144779038888488</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0129872342497365</v>
+      </c>
+      <c r="E98">
+        <v>0.08253280852538192</v>
+      </c>
+      <c r="F98">
+        <v>0.09460775414816515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05600428192792998</v>
+        <v>-0.0550891325751448</v>
       </c>
       <c r="C99">
-        <v>0.01148950062372556</v>
+        <v>0.004716200161140197</v>
       </c>
       <c r="D99">
-        <v>0.008183424009067393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03959945683466441</v>
+      </c>
+      <c r="E99">
+        <v>-0.02269248970112127</v>
+      </c>
+      <c r="F99">
+        <v>-0.001058821034793009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.166179543860357</v>
+        <v>-0.1243232500070795</v>
       </c>
       <c r="C100">
-        <v>0.05843490068642377</v>
+        <v>0.05522463035117752</v>
       </c>
       <c r="D100">
-        <v>0.6140493689543564</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3458253722733698</v>
+      </c>
+      <c r="E100">
+        <v>0.8879797558831415</v>
+      </c>
+      <c r="F100">
+        <v>0.1470974605103754</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02571448067458467</v>
+        <v>-0.02879184742128287</v>
       </c>
       <c r="C101">
-        <v>-0.006296241813794634</v>
+        <v>-0.008848771680276687</v>
       </c>
       <c r="D101">
-        <v>0.009561317558105327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03050927106867691</v>
+      </c>
+      <c r="E101">
+        <v>-0.01082261628894401</v>
+      </c>
+      <c r="F101">
+        <v>0.01459075999165302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
